--- a/public/files/1006.xlsx
+++ b/public/files/1006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F5064-623A-48FD-B007-1A09854DB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E96B8-8220-4005-9763-0C2545C613E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1006" sheetId="6" r:id="rId1"/>
@@ -125,36 +125,6 @@
     <t>00000050</t>
   </si>
   <si>
-    <t>D-000061</t>
-  </si>
-  <si>
-    <t>D-000062</t>
-  </si>
-  <si>
-    <t>D-000063</t>
-  </si>
-  <si>
-    <t>D-000064</t>
-  </si>
-  <si>
-    <t>D-000065</t>
-  </si>
-  <si>
-    <t>D-000066</t>
-  </si>
-  <si>
-    <t>D-000067</t>
-  </si>
-  <si>
-    <t>D-000068</t>
-  </si>
-  <si>
-    <t>D-000069</t>
-  </si>
-  <si>
-    <t>D-000070</t>
-  </si>
-  <si>
     <t>Name 51</t>
   </si>
   <si>
@@ -215,34 +185,64 @@
     <t>00000060</t>
   </si>
   <si>
-    <t>D-000071</t>
-  </si>
-  <si>
-    <t>D-000072</t>
-  </si>
-  <si>
-    <t>D-000073</t>
-  </si>
-  <si>
-    <t>D-000074</t>
-  </si>
-  <si>
-    <t>D-000075</t>
-  </si>
-  <si>
-    <t>D-000076</t>
-  </si>
-  <si>
-    <t>D-000077</t>
-  </si>
-  <si>
-    <t>D-000078</t>
-  </si>
-  <si>
-    <t>D-000079</t>
-  </si>
-  <si>
-    <t>D-000080</t>
+    <t>D-000081</t>
+  </si>
+  <si>
+    <t>D-000082</t>
+  </si>
+  <si>
+    <t>D-000083</t>
+  </si>
+  <si>
+    <t>D-000084</t>
+  </si>
+  <si>
+    <t>D-000085</t>
+  </si>
+  <si>
+    <t>D-000086</t>
+  </si>
+  <si>
+    <t>D-000087</t>
+  </si>
+  <si>
+    <t>D-000088</t>
+  </si>
+  <si>
+    <t>D-000089</t>
+  </si>
+  <si>
+    <t>D-000090</t>
+  </si>
+  <si>
+    <t>D-000091</t>
+  </si>
+  <si>
+    <t>D-000092</t>
+  </si>
+  <si>
+    <t>D-000093</t>
+  </si>
+  <si>
+    <t>D-000094</t>
+  </si>
+  <si>
+    <t>D-000095</t>
+  </si>
+  <si>
+    <t>D-000096</t>
+  </si>
+  <si>
+    <t>D-000097</t>
+  </si>
+  <si>
+    <t>D-000098</t>
+  </si>
+  <si>
+    <t>D-000099</t>
+  </si>
+  <si>
+    <t>D-000100</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>44266</v>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>44266</v>
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3">
         <v>44266</v>
@@ -709,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>44266</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
         <v>44266</v>
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3">
         <v>44266</v>
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>44266</v>
@@ -813,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3">
         <v>44266</v>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>44266</v>
@@ -865,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>44266</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>61</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>62</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>63</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>64</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>65</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>66</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>69</v>
